--- a/data/trans_orig/P1435-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>76400</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61702</v>
+        <v>61340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94450</v>
+        <v>94211</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08283336388381274</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06689721599450807</v>
+        <v>0.06650510601348131</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1024034095900194</v>
+        <v>0.1021438867068648</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>845933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>827883</v>
+        <v>828122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>860631</v>
+        <v>860993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9171666361161873</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8975965904099806</v>
+        <v>0.8978561132931352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9331027840054922</v>
+        <v>0.9334948939865187</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>65856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51265</v>
+        <v>51949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81884</v>
+        <v>82974</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06227253154767835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04847619183924472</v>
+        <v>0.04912300320559814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07742895757376164</v>
+        <v>0.07845936337556576</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>991682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>975654</v>
+        <v>974564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1006273</v>
+        <v>1005589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9377274684523217</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9225710424262383</v>
+        <v>0.9215406366244341</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9515238081607552</v>
+        <v>0.9508769967944019</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>67218</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54253</v>
+        <v>53496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85172</v>
+        <v>83296</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06762783950169723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05458347225314923</v>
+        <v>0.05382253539467062</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08569086069157821</v>
+        <v>0.0838038688258106</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>926722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>908768</v>
+        <v>910644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>939687</v>
+        <v>940444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9323721604983027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9143091393084218</v>
+        <v>0.9161961311741894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9454165277468508</v>
+        <v>0.9461774646053294</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>44750</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33865</v>
+        <v>33323</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56972</v>
+        <v>58035</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1311712445955892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09926567636225916</v>
+        <v>0.0976768749944035</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1669953816354609</v>
+        <v>0.1701115886932285</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>296408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>284186</v>
+        <v>283123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307293</v>
+        <v>307835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8688287554044108</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8330046183645389</v>
+        <v>0.8298884113067709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9007343236377409</v>
+        <v>0.9023231250055964</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>254224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>222019</v>
+        <v>225455</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284249</v>
+        <v>285284</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07668960362897255</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06697470652821201</v>
+        <v>0.0680111343820767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08574722139232392</v>
+        <v>0.08605923994478339</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>3060745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3030720</v>
+        <v>3029685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3092950</v>
+        <v>3089514</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9233103963710274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9142527786076761</v>
+        <v>0.9139407600552167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9330252934717881</v>
+        <v>0.9319888656179234</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>40907</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29740</v>
+        <v>29591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56086</v>
+        <v>55160</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03656838247489925</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02658514193751269</v>
+        <v>0.02645261296960698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05013698872660124</v>
+        <v>0.04930955241258838</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>1077746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1062567</v>
+        <v>1063493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1088913</v>
+        <v>1089062</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9634316175251008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9498630112733988</v>
+        <v>0.9506904475874117</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9734148580624873</v>
+        <v>0.9735473870303935</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>46399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33434</v>
+        <v>33771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60695</v>
+        <v>60167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04247680566984706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03060806195364959</v>
+        <v>0.03091656059953624</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0555647276616518</v>
+        <v>0.05508164370749002</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>1045928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1031632</v>
+        <v>1032160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1058893</v>
+        <v>1058556</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.957523194330153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9444352723383482</v>
+        <v>0.94491835629251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9693919380463504</v>
+        <v>0.9690834394004638</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>32125</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22233</v>
+        <v>21804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44874</v>
+        <v>44273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03668054214386961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02538640529020641</v>
+        <v>0.02489579042736399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0512376948219596</v>
+        <v>0.05055120503599957</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>843671</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>830922</v>
+        <v>831523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>853563</v>
+        <v>853992</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9633194578561304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9487623051780404</v>
+        <v>0.9494487949640005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9746135947097935</v>
+        <v>0.9751042095726363</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>16960</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10017</v>
+        <v>9958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27903</v>
+        <v>27739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03746031609788131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02212490672286008</v>
+        <v>0.02199610678150823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06163297649204554</v>
+        <v>0.06127049750986925</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>435776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424833</v>
+        <v>424997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>442719</v>
+        <v>442778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9625396839021187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9383670235079544</v>
+        <v>0.9387295024901308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9778750932771398</v>
+        <v>0.9780038932184918</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>136390</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113342</v>
+        <v>114444</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>159271</v>
+        <v>159119</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03853361696170057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03202182400198782</v>
+        <v>0.03233330186638689</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04499816363595163</v>
+        <v>0.0449549787202984</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>3403121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3380240</v>
+        <v>3380392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3426169</v>
+        <v>3425067</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9614663830382995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9550018363640486</v>
+        <v>0.9550450212797016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9679781759980123</v>
+        <v>0.9676666981336132</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>18209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11189</v>
+        <v>10762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28501</v>
+        <v>27864</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01445680805181614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008883418487140792</v>
+        <v>0.008544002796121879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02262744296483537</v>
+        <v>0.0221218753136641</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>1241352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1231060</v>
+        <v>1231697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1248372</v>
+        <v>1248799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9855431919481838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9773725570351648</v>
+        <v>0.9778781246863359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9911165815128594</v>
+        <v>0.9914559972038786</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>20721</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13382</v>
+        <v>13310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30522</v>
+        <v>31086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02058732537944724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01329617216359936</v>
+        <v>0.01322455133279886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03032592873089279</v>
+        <v>0.0308864144502926</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>985754</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>975953</v>
+        <v>975389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>993093</v>
+        <v>993165</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9794126746205527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9696740712691071</v>
+        <v>0.9691135855497073</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9867038278364006</v>
+        <v>0.9867754486672011</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>16139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9420</v>
+        <v>9479</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26125</v>
+        <v>25494</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02093101231545849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01221757347898116</v>
+        <v>0.01229284723752325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0338820741155738</v>
+        <v>0.03306412855064192</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>754920</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>744934</v>
+        <v>745565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>761639</v>
+        <v>761580</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9790689876845415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9661179258844256</v>
+        <v>0.9669358714493581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9877824265210187</v>
+        <v>0.9877071527624768</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>11319</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6003</v>
+        <v>5764</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19718</v>
+        <v>19545</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02311441639952266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01225875836576143</v>
+        <v>0.01177099885850452</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04026624014342286</v>
+        <v>0.03991319429326715</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>478379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>469980</v>
+        <v>470153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483695</v>
+        <v>483934</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9768855836004773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9597337598565771</v>
+        <v>0.9600868057067329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9877412416342386</v>
+        <v>0.9882290011414958</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>66388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50300</v>
+        <v>51236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82450</v>
+        <v>82827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0188238969688476</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01426230318080647</v>
+        <v>0.01452758567122194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02337820876493153</v>
+        <v>0.02348522230965169</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>3460404</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3444342</v>
+        <v>3443965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3476492</v>
+        <v>3475556</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9811761030311524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9766217912350684</v>
+        <v>0.9765147776903483</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9857376968191935</v>
+        <v>0.9854724143287781</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>34462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25079</v>
+        <v>24749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48292</v>
+        <v>47513</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05533257575097283</v>
+        <v>0.05533257575097282</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04026697123064108</v>
+        <v>0.03973718557405038</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07753703552751426</v>
+        <v>0.07628775782276979</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>588357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>574527</v>
+        <v>575306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>597740</v>
+        <v>598070</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9446674242490271</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9224629644724859</v>
+        <v>0.9237122421772298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9597330287693588</v>
+        <v>0.9602628144259494</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>47788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36513</v>
+        <v>35813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61764</v>
+        <v>62694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04303842771391655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03288434526265771</v>
+        <v>0.03225398447346804</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05562518791875744</v>
+        <v>0.05646333778942202</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>1062565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1048589</v>
+        <v>1047659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1073840</v>
+        <v>1074540</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9569615722860837</v>
+        <v>0.9569615722860833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9443748120812429</v>
+        <v>0.943536662210578</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9671156547373426</v>
+        <v>0.9677460155265319</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>55905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42441</v>
+        <v>42287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72769</v>
+        <v>73915</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05343779002220811</v>
+        <v>0.0534377900222081</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04056855541704813</v>
+        <v>0.04042085612418229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06955840692643535</v>
+        <v>0.07065308051690604</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>990258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>973394</v>
+        <v>972248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1003722</v>
+        <v>1003876</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9465622099777918</v>
+        <v>0.9465622099777917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.930441593073565</v>
+        <v>0.9293469194830943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.959431444582952</v>
+        <v>0.9595791438758179</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>88273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70855</v>
+        <v>71902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108799</v>
+        <v>109693</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09741220674761665</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07819025195792094</v>
+        <v>0.0793455069822759</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1200627933861878</v>
+        <v>0.1210492033544234</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>817912</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>797386</v>
+        <v>796492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>835330</v>
+        <v>834283</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9025877932523835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8799372066138123</v>
+        <v>0.8789507966455766</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.921809748042079</v>
+        <v>0.9206544930177242</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>226428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>197085</v>
+        <v>199488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>259226</v>
+        <v>256705</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06143723310105373</v>
+        <v>0.06143723310105372</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05347536824213978</v>
+        <v>0.05412745429565006</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07033637512829147</v>
+        <v>0.06965237760064405</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>3459093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3426295</v>
+        <v>3428816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3488436</v>
+        <v>3486033</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9385627668989464</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9296636248717084</v>
+        <v>0.9303476223993559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9465246317578602</v>
+        <v>0.9458725457043499</v>
       </c>
     </row>
     <row r="18">
